--- a/public/tmp/expectreport.xlsx
+++ b/public/tmp/expectreport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t>#</t>
   </si>
@@ -86,6 +86,144 @@
     <t>อนุมัติทั้งหมด</t>
   </si>
   <si>
+    <t>2024-03-27 09:21:55</t>
+  </si>
+  <si>
+    <t>4ขศ5845</t>
+  </si>
+  <si>
+    <t>Z067102549</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>B รอประกันอนุมัติ</t>
+  </si>
+  <si>
+    <t>MF7066U10934</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันห้าง</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>2024-03-29 09:17:01</t>
+  </si>
+  <si>
+    <t>บม9872</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>AOVMF8849234</t>
+  </si>
+  <si>
+    <t>มิตรแท้ประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-03-29 16:06:19</t>
+  </si>
+  <si>
+    <t>ก2173</t>
+  </si>
+  <si>
+    <t>Z067107398</t>
+  </si>
+  <si>
+    <t>DC7067001503</t>
+  </si>
+  <si>
+    <t>ลูกค้า Daily claim</t>
+  </si>
+  <si>
+    <t>2024-03-30 11:32:14</t>
+  </si>
+  <si>
+    <t>กพ3160</t>
+  </si>
+  <si>
+    <t>I00000000...</t>
+  </si>
+  <si>
+    <t>2024-03-30</t>
+  </si>
+  <si>
+    <t>V1YAHP/001</t>
+  </si>
+  <si>
+    <t>นวกิจ</t>
+  </si>
+  <si>
+    <t>ลูกค้า Walk in ด้วยตัวเอง</t>
+  </si>
+  <si>
+    <t>2024-03-30 15:53:49</t>
+  </si>
+  <si>
+    <t>บร453</t>
+  </si>
+  <si>
+    <t>Z067106411</t>
+  </si>
+  <si>
+    <t>D87066U00212</t>
+  </si>
+  <si>
+    <t>2024-04-01 09:32:15</t>
+  </si>
+  <si>
+    <t>กต3852</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>ELVMI5537112</t>
+  </si>
+  <si>
+    <t>เบี้ยประกันอู่</t>
+  </si>
+  <si>
+    <t>2024-04-01 10:37:00</t>
+  </si>
+  <si>
+    <t>บม9480</t>
+  </si>
+  <si>
+    <t>F067082194</t>
+  </si>
+  <si>
+    <t>DE7066U00087</t>
+  </si>
+  <si>
+    <t>2024-04-01 15:10:51</t>
+  </si>
+  <si>
+    <t>กบ6504</t>
+  </si>
+  <si>
+    <t>F066182923</t>
+  </si>
+  <si>
+    <t>DC7065AE0048</t>
+  </si>
+  <si>
+    <t>2024-04-01 15:21:02</t>
+  </si>
+  <si>
+    <t>Z067110670</t>
+  </si>
+  <si>
+    <t>DC7066004954</t>
+  </si>
+  <si>
     <t>2024-04-01 15:34:00</t>
   </si>
   <si>
@@ -95,148 +233,139 @@
     <t>67701/รจ/004915</t>
   </si>
   <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>B รอประกันอนุมัติ</t>
-  </si>
-  <si>
     <t>66113/กธ/083246-10</t>
   </si>
   <si>
     <t>วิริยะประกันภัย</t>
   </si>
   <si>
-    <t>เบี้ยประกันห้าง</t>
-  </si>
-  <si>
-    <t>ลูกค้า Walk in ด้วยตัวเอง</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>2024-03-27 09:21:55</t>
-  </si>
-  <si>
-    <t>4ขศ5845</t>
-  </si>
-  <si>
-    <t>Z067102549</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>MF7066U10934</t>
-  </si>
-  <si>
-    <t>คุ้มภัยโตเกียว</t>
-  </si>
-  <si>
-    <t>2024-03-29 16:06:19</t>
-  </si>
-  <si>
-    <t>ก2173</t>
-  </si>
-  <si>
-    <t>Z067107398</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>DC7067001503</t>
-  </si>
-  <si>
-    <t>ลูกค้า Daily claim</t>
-  </si>
-  <si>
-    <t>2024-03-29 09:17:01</t>
-  </si>
-  <si>
-    <t>บม9872</t>
-  </si>
-  <si>
-    <t>AOVMF8849234</t>
-  </si>
-  <si>
-    <t>มิตรแท้ประกันภัย</t>
-  </si>
-  <si>
-    <t>2024-03-30 11:32:14</t>
-  </si>
-  <si>
-    <t>กพ3160</t>
-  </si>
-  <si>
-    <t>I00000000...</t>
-  </si>
-  <si>
-    <t>2024-03-30</t>
-  </si>
-  <si>
-    <t>V1YAHP/001</t>
-  </si>
-  <si>
-    <t>นวกิจ</t>
-  </si>
-  <si>
-    <t>2024-03-30 15:53:49</t>
-  </si>
-  <si>
-    <t>บร453</t>
-  </si>
-  <si>
-    <t>Z067106411</t>
-  </si>
-  <si>
-    <t>D87066U00212</t>
-  </si>
-  <si>
-    <t>2024-04-01 09:32:15</t>
-  </si>
-  <si>
-    <t>กต3852</t>
-  </si>
-  <si>
-    <t>ELVMI5537112</t>
-  </si>
-  <si>
-    <t>เบี้ยประกันอู่</t>
-  </si>
-  <si>
-    <t>2024-04-01 10:37:00</t>
-  </si>
-  <si>
-    <t>บม9480</t>
-  </si>
-  <si>
-    <t>F067082194</t>
-  </si>
-  <si>
-    <t>DE7066U00087</t>
-  </si>
-  <si>
-    <t>2024-04-01 15:10:51</t>
-  </si>
-  <si>
-    <t>กบ6504</t>
-  </si>
-  <si>
-    <t>F066182923</t>
-  </si>
-  <si>
-    <t>DC7065AE0048</t>
-  </si>
-  <si>
-    <t>2024-04-01 15:21:02</t>
-  </si>
-  <si>
-    <t>Z067110670</t>
-  </si>
-  <si>
-    <t>DC7066004954</t>
+    <t>2024-05-14 06:41:05</t>
+  </si>
+  <si>
+    <t>นท231</t>
+  </si>
+  <si>
+    <t>wdwadw</t>
+  </si>
+  <si>
+    <t>ธนชาต</t>
+  </si>
+  <si>
+    <t>dwadwa</t>
+  </si>
+  <si>
+    <t>ลูกค้า Walk in จากสื่อโฆษณาการประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>2024-05-19</t>
+  </si>
+  <si>
+    <t>2024-06-02</t>
+  </si>
+  <si>
+    <t>2024-05-17 09:23:02</t>
+  </si>
+  <si>
+    <t>esfesfes</t>
+  </si>
+  <si>
+    <t>efesfesf</t>
+  </si>
+  <si>
+    <t>sefesfes</t>
+  </si>
+  <si>
+    <t>ฟอลคอนประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>2024-03-27 09:45:22</t>
+  </si>
+  <si>
+    <t>2ฒต529</t>
+  </si>
+  <si>
+    <t>ACD401-24-2-102070</t>
+  </si>
+  <si>
+    <t>C ประกันอนุมัติ</t>
+  </si>
+  <si>
+    <t>001-23-2100-227031</t>
+  </si>
+  <si>
+    <t>2024-02-05 15:07:07</t>
+  </si>
+  <si>
+    <t>บย4037</t>
+  </si>
+  <si>
+    <t>Z067039619</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>DC7066001091</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-05-18 06:43:55</t>
+  </si>
+  <si>
+    <t>w3rwr3wr</t>
+  </si>
+  <si>
+    <t>r3r3dwdw</t>
+  </si>
+  <si>
+    <t>wadwa</t>
+  </si>
+  <si>
+    <t>ท่าศาลา</t>
+  </si>
+  <si>
+    <t>wadad</t>
+  </si>
+  <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-05-18 06:52:34</t>
+  </si>
+  <si>
+    <t>wdwadaw</t>
+  </si>
+  <si>
+    <t>awdawdw</t>
+  </si>
+  <si>
+    <t>awdwad</t>
+  </si>
+  <si>
+    <t>awdawdwa</t>
+  </si>
+  <si>
+    <t>ซ่อมเงินสด</t>
+  </si>
+  <si>
+    <t>ลูกค้า Walk in จากการแนะนำจากคนรู้จัก</t>
   </si>
   <si>
     <t>2023-12-18 13:15:57</t>
@@ -251,48 +380,12 @@
     <t>2023-12-26</t>
   </si>
   <si>
-    <t>C ประกันอนุมัติ</t>
-  </si>
-  <si>
     <t>V1Q68H/004</t>
   </si>
   <si>
     <t>2023-12-18</t>
   </si>
   <si>
-    <t>2024-03-27 09:45:22</t>
-  </si>
-  <si>
-    <t>2ฒต529</t>
-  </si>
-  <si>
-    <t>ACD401-24-2-102070</t>
-  </si>
-  <si>
-    <t>001-23-2100-227031</t>
-  </si>
-  <si>
-    <t>ธนชาต</t>
-  </si>
-  <si>
-    <t>2024-02-05 15:07:07</t>
-  </si>
-  <si>
-    <t>บย4037</t>
-  </si>
-  <si>
-    <t>Z067039619</t>
-  </si>
-  <si>
-    <t>2024-02-09</t>
-  </si>
-  <si>
-    <t>DC7066001091</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
     <t>2024-02-22 08:58:11</t>
   </si>
   <si>
@@ -311,6 +404,126 @@
     <t>2024-02-22</t>
   </si>
   <si>
+    <t>2024-03-08 15:37:02</t>
+  </si>
+  <si>
+    <t>3ฒว8084</t>
+  </si>
+  <si>
+    <t>Z067081172</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>D รออะไหล่</t>
+  </si>
+  <si>
+    <t>MF7066U05172</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-03-09 16:25:21</t>
+  </si>
+  <si>
+    <t>กพ5057</t>
+  </si>
+  <si>
+    <t>F067083067</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>DC7066U00353</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-03-12 13:22:16</t>
+  </si>
+  <si>
+    <t>บร464</t>
+  </si>
+  <si>
+    <t>F066355072</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>DC7066U00195</t>
+  </si>
+  <si>
+    <t>2024-03-16 16:21:28</t>
+  </si>
+  <si>
+    <t>บพ721</t>
+  </si>
+  <si>
+    <t>08948965</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>M5306949</t>
+  </si>
+  <si>
+    <t>เมืองไทยประกัน</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-03-21 15:11:23</t>
+  </si>
+  <si>
+    <t>กพ1071</t>
+  </si>
+  <si>
+    <t>Z067097880</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>DC7066003089</t>
+  </si>
+  <si>
+    <t>2024-03-23 15:40:55</t>
+  </si>
+  <si>
+    <t>กพ6123</t>
+  </si>
+  <si>
+    <t>67702/รจ/003686</t>
+  </si>
+  <si>
+    <t>66129/กธ/122964-10</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>2024-03-25 15:06:59</t>
+  </si>
+  <si>
+    <t>1ขศ6939</t>
+  </si>
+  <si>
+    <t>67709/รจ/002373</t>
+  </si>
+  <si>
+    <t>66005/กธ/E05478-10</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
     <t>2024-03-26 08:37:41</t>
   </si>
   <si>
@@ -320,13 +533,133 @@
     <t>Z067102532</t>
   </si>
   <si>
-    <t>D รออะไหล่</t>
-  </si>
-  <si>
     <t>DC7066005281</t>
   </si>
   <si>
-    <t>2024-03-26</t>
+    <t>2024-03-27 10:21:48</t>
+  </si>
+  <si>
+    <t>กต8292</t>
+  </si>
+  <si>
+    <t>F067103177</t>
+  </si>
+  <si>
+    <t>DC7066011282</t>
+  </si>
+  <si>
+    <t>2024-03-27 11:00:10</t>
+  </si>
+  <si>
+    <t>กน3151</t>
+  </si>
+  <si>
+    <t>67709/รจ/004660</t>
+  </si>
+  <si>
+    <t>66003/กธ/E08113-10</t>
+  </si>
+  <si>
+    <t>2024-02-02 11:24:42</t>
+  </si>
+  <si>
+    <t>F067035768</t>
+  </si>
+  <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>2024-03-28 11:33:02</t>
+  </si>
+  <si>
+    <t>บย7171</t>
+  </si>
+  <si>
+    <t>Z067105688</t>
+  </si>
+  <si>
+    <t>DC7066006326</t>
+  </si>
+  <si>
+    <t>2024-03-28 14:55:03</t>
+  </si>
+  <si>
+    <t>บย7591</t>
+  </si>
+  <si>
+    <t>F067105768</t>
+  </si>
+  <si>
+    <t>DC7066009394</t>
+  </si>
+  <si>
+    <t>2024-03-29 13:02:18</t>
+  </si>
+  <si>
+    <t>ขค7829</t>
+  </si>
+  <si>
+    <t>Z067106955</t>
+  </si>
+  <si>
+    <t>D77066U00370</t>
+  </si>
+  <si>
+    <t>2024-03-29 13:24:07</t>
+  </si>
+  <si>
+    <t>กพ2328</t>
+  </si>
+  <si>
+    <t>67701/รจ/004790</t>
+  </si>
+  <si>
+    <t>66702/กธ/018355-10</t>
+  </si>
+  <si>
+    <t>2024-04-01 11:13:14</t>
+  </si>
+  <si>
+    <t>กน3736</t>
+  </si>
+  <si>
+    <t>F067101943</t>
+  </si>
+  <si>
+    <t>DC7066003797</t>
+  </si>
+  <si>
+    <t>2024-04-20 04:47:02</t>
+  </si>
+  <si>
+    <t>บก81902</t>
+  </si>
+  <si>
+    <t>12121vfef</t>
+  </si>
+  <si>
+    <t>feegeg</t>
+  </si>
+  <si>
+    <t>232fd</t>
+  </si>
+  <si>
+    <t>2024-04-20 04:53:20</t>
+  </si>
+  <si>
+    <t>12121vfefcavvsv</t>
+  </si>
+  <si>
+    <t>2024-04-20 04:58:20</t>
+  </si>
+  <si>
+    <t>12121vfefcavvsv24224</t>
+  </si>
+  <si>
+    <t>2024-04-20 05:01:29</t>
+  </si>
+  <si>
+    <t>12121vfefcavvsv242242322</t>
   </si>
   <si>
     <t>2024-02-12 13:55:58</t>
@@ -347,36 +680,6 @@
     <t>2024-02-12</t>
   </si>
   <si>
-    <t>2024-03-25 15:06:59</t>
-  </si>
-  <si>
-    <t>1ขศ6939</t>
-  </si>
-  <si>
-    <t>67709/รจ/002373</t>
-  </si>
-  <si>
-    <t>66005/กธ/E05478-10</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-03-23 15:40:55</t>
-  </si>
-  <si>
-    <t>กพ6123</t>
-  </si>
-  <si>
-    <t>67702/รจ/003686</t>
-  </si>
-  <si>
-    <t>66129/กธ/122964-10</t>
-  </si>
-  <si>
-    <t>2024-03-23</t>
-  </si>
-  <si>
     <t>2024-02-20 10:26:04</t>
   </si>
   <si>
@@ -395,247 +698,121 @@
     <t>2024-02-20</t>
   </si>
   <si>
-    <t>2024-03-19 15:59:14</t>
-  </si>
-  <si>
-    <t>บม2800</t>
-  </si>
-  <si>
-    <t>F067093151</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>DC7065006278</t>
+    <t>2024-03-07 11:50:17</t>
+  </si>
+  <si>
+    <t>บร1423</t>
+  </si>
+  <si>
+    <t>Z067081068</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>E อะไหล่ครบ</t>
+  </si>
+  <si>
+    <t>DC7066U00327</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>2024-03-07 14:08:59</t>
+  </si>
+  <si>
+    <t>บย8016</t>
+  </si>
+  <si>
+    <t>F066372219</t>
+  </si>
+  <si>
+    <t>DC7066TC0175</t>
+  </si>
+  <si>
+    <t>2024-03-09 09:52:51</t>
+  </si>
+  <si>
+    <t>กน7350</t>
+  </si>
+  <si>
+    <t>I24031030</t>
+  </si>
+  <si>
+    <t>V1WXF0/002</t>
+  </si>
+  <si>
+    <t>จากการแนะนำจากบริษัทประกัน หรือ เซอร์เวย์</t>
+  </si>
+  <si>
+    <t>2024-03-11 14:42:38</t>
+  </si>
+  <si>
+    <t>บม9194</t>
+  </si>
+  <si>
+    <t>ACD501-24-2-101961</t>
+  </si>
+  <si>
+    <t>001-23-2100-170551</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-03-12 10:26:32</t>
+  </si>
+  <si>
+    <t>9กภ8851</t>
+  </si>
+  <si>
+    <t>Z067085441</t>
+  </si>
+  <si>
+    <t>2024-03-15 15:57:35</t>
+  </si>
+  <si>
+    <t>บร1747</t>
+  </si>
+  <si>
+    <t>Z067090650</t>
+  </si>
+  <si>
+    <t>DC7066U00342</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-03-16 11:16:56</t>
+  </si>
+  <si>
+    <t>กธ998</t>
+  </si>
+  <si>
+    <t>F067084194</t>
+  </si>
+  <si>
+    <t>DC7067001630</t>
+  </si>
+  <si>
+    <t>2024-03-18 08:28:57</t>
+  </si>
+  <si>
+    <t>ขค172</t>
+  </si>
+  <si>
+    <t>46-AV1-2024-410000227</t>
   </si>
   <si>
     <t>2024-03-19</t>
   </si>
   <si>
-    <t>2024-03-12 13:22:16</t>
-  </si>
-  <si>
-    <t>บร464</t>
-  </si>
-  <si>
-    <t>F066355072</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>DC7066U00195</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>2024-03-28 14:55:03</t>
-  </si>
-  <si>
-    <t>บย7591</t>
-  </si>
-  <si>
-    <t>F067105768</t>
-  </si>
-  <si>
-    <t>DC7066009394</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-03-08 15:37:02</t>
-  </si>
-  <si>
-    <t>3ฒว8084</t>
-  </si>
-  <si>
-    <t>Z067081172</t>
-  </si>
-  <si>
-    <t>MF7066U05172</t>
-  </si>
-  <si>
-    <t>2024-03-08</t>
-  </si>
-  <si>
-    <t>2024-03-16 16:21:28</t>
-  </si>
-  <si>
-    <t>บพ721</t>
-  </si>
-  <si>
-    <t>08948965</t>
-  </si>
-  <si>
-    <t>M5306949</t>
-  </si>
-  <si>
-    <t>เมืองไทยประกัน</t>
-  </si>
-  <si>
-    <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>2024-03-20 11:58:36</t>
-  </si>
-  <si>
-    <t>กบ8985</t>
-  </si>
-  <si>
-    <t>67709/รจ002295</t>
-  </si>
-  <si>
-    <t>66129/กธ/113731-10</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>2024-03-28 11:33:02</t>
-  </si>
-  <si>
-    <t>บย7171</t>
-  </si>
-  <si>
-    <t>Z067105688</t>
-  </si>
-  <si>
-    <t>DC7066006326</t>
-  </si>
-  <si>
-    <t>2024-03-29 13:02:18</t>
-  </si>
-  <si>
-    <t>ขค7829</t>
-  </si>
-  <si>
-    <t>Z067106955</t>
-  </si>
-  <si>
-    <t>D77066U00370</t>
-  </si>
-  <si>
-    <t>2024-03-29 13:24:07</t>
-  </si>
-  <si>
-    <t>กพ2328</t>
-  </si>
-  <si>
-    <t>67701/รจ/004790</t>
-  </si>
-  <si>
-    <t>66702/กธ/018355-10</t>
-  </si>
-  <si>
-    <t>2024-03-27 11:00:10</t>
-  </si>
-  <si>
-    <t>กน3151</t>
-  </si>
-  <si>
-    <t>67709/รจ/004660</t>
-  </si>
-  <si>
-    <t>66003/กธ/E08113-10</t>
-  </si>
-  <si>
-    <t>2024-03-27 10:21:48</t>
-  </si>
-  <si>
-    <t>กต8292</t>
-  </si>
-  <si>
-    <t>F067103177</t>
-  </si>
-  <si>
-    <t>DC7066011282</t>
-  </si>
-  <si>
-    <t>2024-03-09 16:25:21</t>
-  </si>
-  <si>
-    <t>กพ5057</t>
-  </si>
-  <si>
-    <t>F067083067</t>
-  </si>
-  <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
-    <t>DC7066U00353</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>2024-03-19 16:34:59</t>
-  </si>
-  <si>
-    <t>Z067095448</t>
-  </si>
-  <si>
-    <t>2024-04-01 11:13:14</t>
-  </si>
-  <si>
-    <t>กน3736</t>
-  </si>
-  <si>
-    <t>F067101943</t>
-  </si>
-  <si>
-    <t>DC7066003797</t>
-  </si>
-  <si>
-    <t>2024-03-19 16:24:19</t>
-  </si>
-  <si>
-    <t>ก2583</t>
-  </si>
-  <si>
-    <t>F067094315</t>
-  </si>
-  <si>
-    <t>DC7067WF0002</t>
-  </si>
-  <si>
-    <t>2024-02-02 11:24:42</t>
-  </si>
-  <si>
-    <t>F067035768</t>
-  </si>
-  <si>
-    <t>2024-02-02</t>
-  </si>
-  <si>
-    <t>2024-03-21 15:11:23</t>
-  </si>
-  <si>
-    <t>กพ1071</t>
-  </si>
-  <si>
-    <t>Z067097880</t>
-  </si>
-  <si>
-    <t>DC7066003089</t>
-  </si>
-  <si>
-    <t>2024-03-12 10:26:32</t>
-  </si>
-  <si>
-    <t>9กภ8851</t>
-  </si>
-  <si>
-    <t>Z067085441</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>E อะไหล่ครบ</t>
+    <t>41-AV1-0000310-00000-2023-02</t>
+  </si>
+  <si>
+    <t>LMG</t>
   </si>
   <si>
     <t>2024-01-26 09:28:04</t>
@@ -656,48 +833,6 @@
     <t>2024-01-26</t>
   </si>
   <si>
-    <t>2024-03-15 15:57:35</t>
-  </si>
-  <si>
-    <t>บร1747</t>
-  </si>
-  <si>
-    <t>Z067090650</t>
-  </si>
-  <si>
-    <t>DC7066U00342</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-03-16 11:16:56</t>
-  </si>
-  <si>
-    <t>กธ998</t>
-  </si>
-  <si>
-    <t>F067084194</t>
-  </si>
-  <si>
-    <t>DC7067001630</t>
-  </si>
-  <si>
-    <t>2024-03-18 08:28:57</t>
-  </si>
-  <si>
-    <t>ขค172</t>
-  </si>
-  <si>
-    <t>46-AV1-2024-410000227</t>
-  </si>
-  <si>
-    <t>41-AV1-0000310-00000-2023-02</t>
-  </si>
-  <si>
-    <t>LMG</t>
-  </si>
-  <si>
     <t>2024-03-18 11:42:37</t>
   </si>
   <si>
@@ -713,6 +848,36 @@
     <t>กรุงไทยพานิช</t>
   </si>
   <si>
+    <t>2023-11-06 13:56:34</t>
+  </si>
+  <si>
+    <t>กธ916</t>
+  </si>
+  <si>
+    <t>Z066351030</t>
+  </si>
+  <si>
+    <t>DC7066002497</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2024-01-31 08:47:36</t>
+  </si>
+  <si>
+    <t>บย4492</t>
+  </si>
+  <si>
+    <t>Z067036981</t>
+  </si>
+  <si>
+    <t>DC7066003268</t>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
     <t>2024-03-25 09:02:02</t>
   </si>
   <si>
@@ -725,19 +890,82 @@
     <t>M7482056-23NBK</t>
   </si>
   <si>
-    <t>2023-11-06 13:56:34</t>
-  </si>
-  <si>
-    <t>กธ916</t>
-  </si>
-  <si>
-    <t>Z066351030</t>
-  </si>
-  <si>
-    <t>DC7066002497</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
+    <t>2024-04-20 05:07:58</t>
+  </si>
+  <si>
+    <t>wfwwwf</t>
+  </si>
+  <si>
+    <t>caafwf</t>
+  </si>
+  <si>
+    <t>wfwfff</t>
+  </si>
+  <si>
+    <t>มิตซูบิชิ มอเตอร์</t>
+  </si>
+  <si>
+    <t>ffwfwfwfw</t>
+  </si>
+  <si>
+    <t>เงินค่า Excess</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>2024-02-20 14:10:33</t>
+  </si>
+  <si>
+    <t>3ขภ4638</t>
+  </si>
+  <si>
+    <t>66709/รจ/001743</t>
+  </si>
+  <si>
+    <t>65129/กธ/131327-10</t>
+  </si>
+  <si>
+    <t>2024-02-20 14:15:05</t>
+  </si>
+  <si>
+    <t>66709/รจ/001743.</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-02-27 09:40:01</t>
+  </si>
+  <si>
+    <t>กน6237</t>
+  </si>
+  <si>
+    <t>Z067066396</t>
+  </si>
+  <si>
+    <t>DC7066AN0070</t>
+  </si>
+  <si>
+    <t>2024-02-27 10:15:25</t>
+  </si>
+  <si>
+    <t>Z067069038</t>
+  </si>
+  <si>
+    <t>2024-02-28 11:06:57</t>
+  </si>
+  <si>
+    <t>กธ82</t>
+  </si>
+  <si>
+    <t>Z067067310</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
   </si>
   <si>
     <t>2024-01-10 14:09:24</t>
@@ -758,129 +986,6 @@
     <t>2024-01-10</t>
   </si>
   <si>
-    <t>2024-01-31 08:47:36</t>
-  </si>
-  <si>
-    <t>บย4492</t>
-  </si>
-  <si>
-    <t>Z067036981</t>
-  </si>
-  <si>
-    <t>DC7066003268</t>
-  </si>
-  <si>
-    <t>2024-01-31</t>
-  </si>
-  <si>
-    <t>2024-03-07 11:50:17</t>
-  </si>
-  <si>
-    <t>บร1423</t>
-  </si>
-  <si>
-    <t>Z067081068</t>
-  </si>
-  <si>
-    <t>DC7066U00327</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>2024-02-20 14:10:33</t>
-  </si>
-  <si>
-    <t>3ขภ4638</t>
-  </si>
-  <si>
-    <t>66709/รจ/001743</t>
-  </si>
-  <si>
-    <t>65129/กธ/131327-10</t>
-  </si>
-  <si>
-    <t>2024-02-20 14:15:05</t>
-  </si>
-  <si>
-    <t>66709/รจ/001743.</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2024-02-27 09:40:01</t>
-  </si>
-  <si>
-    <t>กน6237</t>
-  </si>
-  <si>
-    <t>Z067066396</t>
-  </si>
-  <si>
-    <t>DC7066AN0070</t>
-  </si>
-  <si>
-    <t>2024-02-27 10:15:25</t>
-  </si>
-  <si>
-    <t>Z067069038</t>
-  </si>
-  <si>
-    <t>2024-02-28 11:06:57</t>
-  </si>
-  <si>
-    <t>กธ82</t>
-  </si>
-  <si>
-    <t>Z067067310</t>
-  </si>
-  <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
-    <t>2024-03-07 14:08:59</t>
-  </si>
-  <si>
-    <t>บย8016</t>
-  </si>
-  <si>
-    <t>F066372219</t>
-  </si>
-  <si>
-    <t>DC7066TC0175</t>
-  </si>
-  <si>
-    <t>2024-03-09 09:52:51</t>
-  </si>
-  <si>
-    <t>กน7350</t>
-  </si>
-  <si>
-    <t>I24031030</t>
-  </si>
-  <si>
-    <t>V1WXF0/002</t>
-  </si>
-  <si>
-    <t>จากการแนะนำจากบริษัทประกัน หรือ เซอร์เวย์</t>
-  </si>
-  <si>
-    <t>2024-03-11 14:42:38</t>
-  </si>
-  <si>
-    <t>บม9194</t>
-  </si>
-  <si>
-    <t>ACD501-24-2-101961</t>
-  </si>
-  <si>
-    <t>001-23-2100-170551</t>
-  </si>
-  <si>
-    <t>2024-03-11</t>
-  </si>
-  <si>
     <t>2024-01-16 11:59:36</t>
   </si>
   <si>
@@ -902,6 +1007,33 @@
     <t>2024-01-15</t>
   </si>
   <si>
+    <t>2024-03-13 11:08:39</t>
+  </si>
+  <si>
+    <t>บม6855</t>
+  </si>
+  <si>
+    <t>F067083250</t>
+  </si>
+  <si>
+    <t>DC7066006886</t>
+  </si>
+  <si>
+    <t>BP81-2403-0121</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>2024-03-13 11:36:22</t>
+  </si>
+  <si>
+    <t>Z067086664</t>
+  </si>
+  <si>
+    <t>BP81-2403-0122</t>
+  </si>
+  <si>
     <t>2024-03-18 08:58:55</t>
   </si>
   <si>
@@ -923,24 +1055,6 @@
     <t>2024-03-31</t>
   </si>
   <si>
-    <t>2024-03-13 11:08:39</t>
-  </si>
-  <si>
-    <t>บม6855</t>
-  </si>
-  <si>
-    <t>F067083250</t>
-  </si>
-  <si>
-    <t>DC7066006886</t>
-  </si>
-  <si>
-    <t>BP81-2403-0121</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
     <t>2024-03-18 15:04:56</t>
   </si>
   <si>
@@ -959,15 +1073,6 @@
     <t>2024-04-18</t>
   </si>
   <si>
-    <t>2024-03-13 11:36:22</t>
-  </si>
-  <si>
-    <t>Z067086664</t>
-  </si>
-  <si>
-    <t>BP81-2403-0122</t>
-  </si>
-  <si>
     <t>2024-03-30 09:04:22</t>
   </si>
   <si>
@@ -980,6 +1085,30 @@
     <t>DC7066U00407</t>
   </si>
   <si>
+    <t>2024-05-17 10:00:39</t>
+  </si>
+  <si>
+    <t>2024-02-14 15:10:09</t>
+  </si>
+  <si>
+    <t>2ฒฬ4210</t>
+  </si>
+  <si>
+    <t>ACD401-24-2-101206</t>
+  </si>
+  <si>
+    <t>001-23-2100-085315</t>
+  </si>
+  <si>
+    <t>BP81-2403-0065</t>
+  </si>
+  <si>
+    <t>2024-02-14</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
     <t>2024-02-29 13:19:07</t>
   </si>
   <si>
@@ -995,27 +1124,6 @@
     <t>BP81-2403-0070</t>
   </si>
   <si>
-    <t>2024-02-14 15:10:09</t>
-  </si>
-  <si>
-    <t>2ฒฬ4210</t>
-  </si>
-  <si>
-    <t>ACD401-24-2-101206</t>
-  </si>
-  <si>
-    <t>001-23-2100-085315</t>
-  </si>
-  <si>
-    <t>BP81-2403-0065</t>
-  </si>
-  <si>
-    <t>2024-02-14</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
     <t>2024-02-12 16:56:23</t>
   </si>
   <si>
@@ -1037,15 +1145,30 @@
     <t>BP81-2402-0073</t>
   </si>
   <si>
+    <t>2024-03-14 15:52:07</t>
+  </si>
+  <si>
+    <t>3ฒน4755</t>
+  </si>
+  <si>
+    <t>I00000000.</t>
+  </si>
+  <si>
+    <t>H รถส่งออก</t>
+  </si>
+  <si>
+    <t>V1XV7M/001</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
     <t>2024-02-08 13:04:32</t>
   </si>
   <si>
     <t>กธ8448</t>
   </si>
   <si>
-    <t>H รถส่งออก</t>
-  </si>
-  <si>
     <t>ไทยวิวัฒน์</t>
   </si>
   <si>
@@ -1055,9 +1178,6 @@
     <t>2024-02-08</t>
   </si>
   <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
     <t>2024-02-27 10:25:23</t>
   </si>
   <si>
@@ -1073,18 +1193,6 @@
     <t>BP81-2403-0082</t>
   </si>
   <si>
-    <t>2024-03-14 15:52:07</t>
-  </si>
-  <si>
-    <t>3ฒน4755</t>
-  </si>
-  <si>
-    <t>I00000000.</t>
-  </si>
-  <si>
-    <t>V1XV7M/001</t>
-  </si>
-  <si>
     <t>2024-03-05 16:14:02</t>
   </si>
   <si>
@@ -1133,6 +1241,45 @@
     <t>TS281-2404-00005</t>
   </si>
   <si>
+    <t>2021-11-27 16:13:29</t>
+  </si>
+  <si>
+    <t>กธ4395</t>
+  </si>
+  <si>
+    <t>HH021331</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>J วางบิลเรียบร้อย</t>
+  </si>
+  <si>
+    <t>เคลมใน</t>
+  </si>
+  <si>
+    <t>BP81-2111-0093</t>
+  </si>
+  <si>
+    <t>รถCKY</t>
+  </si>
+  <si>
+    <t>ลูกค้า Walk in</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-11-27</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
     <t>2024-02-06 14:37:42</t>
   </si>
   <si>
@@ -1142,57 +1289,27 @@
     <t>006411</t>
   </si>
   <si>
-    <t>J วางบิลเรียบร้อย</t>
-  </si>
-  <si>
     <t>BP81-2401-0083</t>
   </si>
   <si>
-    <t>เงินค่า Excess</t>
-  </si>
-  <si>
     <t>2024-01-23</t>
   </si>
   <si>
-    <t>2021-11-27 16:13:29</t>
-  </si>
-  <si>
-    <t>กธ4395</t>
-  </si>
-  <si>
-    <t>HH021331</t>
-  </si>
-  <si>
-    <t>2021-12-29</t>
-  </si>
-  <si>
-    <t>เคลมใน</t>
-  </si>
-  <si>
-    <t>BP81-2111-0093</t>
-  </si>
-  <si>
-    <t>รถCKY</t>
-  </si>
-  <si>
-    <t>ลูกค้า Walk in</t>
-  </si>
-  <si>
-    <t>2021-11-16</t>
-  </si>
-  <si>
-    <t>2021-11-27</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>2021-12-02</t>
-  </si>
-  <si>
     <t>0000-00-00 00:00:00</t>
   </si>
   <si>
+    <t>02991</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
+  </si>
+  <si>
     <t>V005530</t>
   </si>
   <si>
@@ -1206,18 +1323,6 @@
   </si>
   <si>
     <t>2019-06-11</t>
-  </si>
-  <si>
-    <t>02991</t>
-  </si>
-  <si>
-    <t>2019-10-31</t>
-  </si>
-  <si>
-    <t>2019-10-28</t>
-  </si>
-  <si>
-    <t>2019-10-29</t>
   </si>
   <si>
     <t>กจ9988</t>
@@ -1629,10 +1734,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W77"/>
+      <selection activeCell="A2" sqref="A2:W83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1763,25 +1868,23 @@
       <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2">
         <v>0.0</v>
@@ -1801,25 +1904,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>240304957</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1828,21 +1931,21 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2">
         <v>0.0</v>
@@ -1862,25 +1965,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1888,24 +1991,24 @@
         <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" s="2">
         <v>0.0</v>
@@ -1925,48 +2028,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2">
-        <v>240304957</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="2">
         <v>0.0</v>
@@ -1995,16 +2100,16 @@
         <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2012,24 +2117,24 @@
         <v>30</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2">
         <v>0.0</v>
@@ -2049,50 +2154,48 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2">
+        <v>240305438</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2">
         <v>0.0</v>
@@ -2112,16 +2215,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2">
-        <v>240305438</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
@@ -2130,30 +2233,30 @@
         <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" s="2">
         <v>0.0</v>
@@ -2173,25 +2276,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2200,21 +2303,21 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2">
         <v>0.0</v>
@@ -2234,25 +2337,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2261,21 +2364,21 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" s="2">
         <v>0.0</v>
@@ -2295,48 +2398,50 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M11" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2">
         <v>0.0</v>
@@ -2361,57 +2466,53 @@
       <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>121211</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>80</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S12" s="2"/>
       <c r="T12" s="2">
         <v>0.0</v>
       </c>
       <c r="U12" s="2">
-        <v>6230.0</v>
+        <v>111110.0</v>
       </c>
       <c r="V12" s="2">
-        <v>0.0</v>
+        <v>111110.0</v>
       </c>
       <c r="W12" s="2">
-        <v>6230.0</v>
+        <v>11110.0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2419,62 +2520,58 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S13" s="2"/>
       <c r="T13" s="2">
         <v>0.0</v>
       </c>
       <c r="U13" s="2">
-        <v>2336.45</v>
+        <v>121210.0</v>
       </c>
       <c r="V13" s="2">
-        <v>0.0</v>
+        <v>121210.0</v>
       </c>
       <c r="W13" s="2">
-        <v>2336.45</v>
+        <v>121210.0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2482,25 +2579,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2508,36 +2605,36 @@
         <v>30</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14" s="2">
         <v>0.0</v>
       </c>
       <c r="U14" s="2">
-        <v>9010.0</v>
+        <v>2336.45</v>
       </c>
       <c r="V14" s="2">
         <v>0.0</v>
       </c>
       <c r="W14" s="2">
-        <v>9010.0</v>
+        <v>2336.45</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2545,60 +2642,62 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15" s="2">
         <v>0.0</v>
       </c>
       <c r="U15" s="2">
-        <v>25580.0</v>
+        <v>9010.0</v>
       </c>
       <c r="V15" s="2">
-        <v>14767.9</v>
+        <v>0.0</v>
       </c>
       <c r="W15" s="2">
-        <v>40347.9</v>
+        <v>9010.0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2606,62 +2705,58 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="2">
         <v>0.0</v>
       </c>
       <c r="U16" s="2">
-        <v>1326.0</v>
+        <v>12120.0</v>
       </c>
       <c r="V16" s="2">
-        <v>5872.65</v>
+        <v>121220.0</v>
       </c>
       <c r="W16" s="2">
-        <v>7198.65</v>
+        <v>12120.0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2669,60 +2764,52 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S17" s="2"/>
       <c r="T17" s="2">
         <v>0.0</v>
       </c>
       <c r="U17" s="2">
-        <v>14365.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" s="2">
-        <v>1586.1</v>
+        <v>0.0</v>
       </c>
       <c r="W17" s="2">
-        <v>15951.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2730,60 +2817,62 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M18" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18" s="2">
         <v>0.0</v>
       </c>
       <c r="U18" s="2">
-        <v>10285.0</v>
+        <v>6230.0</v>
       </c>
       <c r="V18" s="2">
-        <v>9235.25</v>
+        <v>0.0</v>
       </c>
       <c r="W18" s="2">
-        <v>19520.25</v>
+        <v>6230.0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2791,22 +2880,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
@@ -2816,37 +2905,35 @@
       <c r="K19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" s="2">
         <v>0.0</v>
       </c>
       <c r="U19" s="2">
-        <v>9122.0</v>
+        <v>25580.0</v>
       </c>
       <c r="V19" s="2">
-        <v>9878.28</v>
+        <v>14767.9</v>
       </c>
       <c r="W19" s="2">
-        <v>19000.28</v>
+        <v>40347.9</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2854,25 +2941,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2881,33 +2968,33 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" s="2">
         <v>0.0</v>
       </c>
       <c r="U20" s="2">
-        <v>22253.0</v>
+        <v>9520.0</v>
       </c>
       <c r="V20" s="2">
-        <v>45813.39</v>
+        <v>9049.1</v>
       </c>
       <c r="W20" s="2">
-        <v>68066.39</v>
+        <v>18569.1</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2915,62 +3002,60 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T21" s="2">
         <v>0.0</v>
       </c>
       <c r="U21" s="2">
-        <v>8245.0</v>
+        <v>66767.5</v>
       </c>
       <c r="V21" s="2">
-        <v>7425.6</v>
+        <v>69044.59</v>
       </c>
       <c r="W21" s="2">
-        <v>15670.6</v>
+        <v>135812.09</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2978,25 +3063,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3005,21 +3090,21 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T22" s="2">
         <v>0.0</v>
@@ -3039,62 +3124,60 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23" s="2">
         <v>0.0</v>
       </c>
       <c r="U23" s="2">
-        <v>5355.0</v>
+        <v>8130.84</v>
       </c>
       <c r="V23" s="2">
-        <v>4242.35</v>
+        <v>7942.4</v>
       </c>
       <c r="W23" s="2">
-        <v>9597.35</v>
+        <v>16073.24</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3102,60 +3185,62 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M24" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T24" s="2">
         <v>0.0</v>
       </c>
       <c r="U24" s="2">
-        <v>9520.0</v>
+        <v>6120.0</v>
       </c>
       <c r="V24" s="2">
-        <v>9049.1</v>
+        <v>79.9</v>
       </c>
       <c r="W24" s="2">
-        <v>18569.1</v>
+        <v>6199.9</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3163,60 +3248,62 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M25" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" s="2">
         <v>0.0</v>
       </c>
       <c r="U25" s="2">
-        <v>8130.84</v>
+        <v>9122.0</v>
       </c>
       <c r="V25" s="2">
-        <v>7942.4</v>
+        <v>9878.28</v>
       </c>
       <c r="W25" s="2">
-        <v>16073.24</v>
+        <v>19000.28</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3224,25 +3311,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3251,33 +3338,33 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T26" s="2">
         <v>0.0</v>
       </c>
       <c r="U26" s="2">
-        <v>255.0</v>
+        <v>10285.0</v>
       </c>
       <c r="V26" s="2">
-        <v>1699.32</v>
+        <v>9235.25</v>
       </c>
       <c r="W26" s="2">
-        <v>1954.32</v>
+        <v>19520.25</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3285,60 +3372,62 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M27" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T27" s="2">
         <v>0.0</v>
       </c>
       <c r="U27" s="2">
-        <v>459.0</v>
+        <v>1326.0</v>
       </c>
       <c r="V27" s="2">
-        <v>4382.6</v>
+        <v>5872.65</v>
       </c>
       <c r="W27" s="2">
-        <v>4841.6</v>
+        <v>7198.65</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3346,60 +3435,60 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28" s="2">
         <v>0.0</v>
       </c>
       <c r="U28" s="2">
-        <v>4003.5</v>
+        <v>6613.0</v>
       </c>
       <c r="V28" s="2">
-        <v>11305.0</v>
+        <v>13583.85</v>
       </c>
       <c r="W28" s="2">
-        <v>15308.5</v>
+        <v>20196.85</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3407,22 +3496,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>29</v>
@@ -3432,37 +3521,35 @@
       <c r="K29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29" s="2">
         <v>0.0</v>
       </c>
       <c r="U29" s="2">
-        <v>17290.0</v>
+        <v>9817.5</v>
       </c>
       <c r="V29" s="2">
-        <v>41947.22</v>
+        <v>21206.65</v>
       </c>
       <c r="W29" s="2">
-        <v>59237.22</v>
+        <v>31024.15</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3470,25 +3557,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3497,33 +3584,33 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30" s="2">
         <v>0.0</v>
       </c>
       <c r="U30" s="2">
-        <v>9817.5</v>
+        <v>22760.0</v>
       </c>
       <c r="V30" s="2">
-        <v>21206.65</v>
+        <v>1004.7</v>
       </c>
       <c r="W30" s="2">
-        <v>31024.15</v>
+        <v>23764.7</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3531,60 +3618,60 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" s="2">
         <v>0.0</v>
       </c>
       <c r="U31" s="2">
-        <v>6613.0</v>
+        <v>459.0</v>
       </c>
       <c r="V31" s="2">
-        <v>13583.85</v>
+        <v>4382.6</v>
       </c>
       <c r="W31" s="2">
-        <v>20196.85</v>
+        <v>4841.6</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3592,60 +3679,62 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M32" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T32" s="2">
         <v>0.0</v>
       </c>
       <c r="U32" s="2">
-        <v>66767.5</v>
+        <v>5355.0</v>
       </c>
       <c r="V32" s="2">
-        <v>69044.59</v>
+        <v>4242.35</v>
       </c>
       <c r="W32" s="2">
-        <v>135812.09</v>
+        <v>9597.35</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3653,62 +3742,60 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T33" s="2">
         <v>0.0</v>
       </c>
       <c r="U33" s="2">
-        <v>16745.0</v>
+        <v>4003.5</v>
       </c>
       <c r="V33" s="2">
-        <v>1232.5</v>
+        <v>11305.0</v>
       </c>
       <c r="W33" s="2">
-        <v>17977.5</v>
+        <v>15308.5</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3716,25 +3803,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3742,36 +3829,36 @@
         <v>30</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T34" s="2">
         <v>0.0</v>
       </c>
       <c r="U34" s="2">
-        <v>4080.0</v>
+        <v>17290.0</v>
       </c>
       <c r="V34" s="2">
-        <v>2577.2</v>
+        <v>41947.22</v>
       </c>
       <c r="W34" s="2">
-        <v>6657.2</v>
+        <v>59237.22</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3779,60 +3866,62 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35" s="2">
         <v>0.0</v>
       </c>
       <c r="U35" s="2">
-        <v>800.0</v>
+        <v>4080.0</v>
       </c>
       <c r="V35" s="2">
-        <v>10355.28</v>
+        <v>2577.2</v>
       </c>
       <c r="W35" s="2">
-        <v>11155.28</v>
+        <v>6657.2</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3840,60 +3929,52 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="2">
         <v>0.0</v>
       </c>
       <c r="U36" s="2">
-        <v>22760.0</v>
+        <v>0.0</v>
       </c>
       <c r="V36" s="2">
-        <v>1004.7</v>
+        <v>0.0</v>
       </c>
       <c r="W36" s="2">
-        <v>23764.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3901,62 +3982,52 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="2">
         <v>0.0</v>
       </c>
       <c r="U37" s="2">
-        <v>6120.0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" s="2">
-        <v>79.9</v>
+        <v>0.0</v>
       </c>
       <c r="W37" s="2">
-        <v>6199.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3964,60 +4035,52 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="2">
-        <v>427066003576</v>
+        <v>133</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S38" s="2"/>
       <c r="T38" s="2">
         <v>0.0</v>
       </c>
       <c r="U38" s="2">
-        <v>32838.0</v>
+        <v>0.0</v>
       </c>
       <c r="V38" s="2">
-        <v>11027.05</v>
+        <v>0.0</v>
       </c>
       <c r="W38" s="2">
-        <v>43865.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4025,62 +4088,52 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="H39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S39" s="2"/>
       <c r="T39" s="2">
         <v>0.0</v>
       </c>
       <c r="U39" s="2">
-        <v>15385.0</v>
+        <v>0.0</v>
       </c>
       <c r="V39" s="2">
-        <v>17657.2</v>
+        <v>0.0</v>
       </c>
       <c r="W39" s="2">
-        <v>33042.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4088,25 +4141,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -4115,33 +4168,33 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T40" s="2">
         <v>0.0</v>
       </c>
       <c r="U40" s="2">
-        <v>510.0</v>
+        <v>14365.0</v>
       </c>
       <c r="V40" s="2">
-        <v>1997.5</v>
+        <v>1586.1</v>
       </c>
       <c r="W40" s="2">
-        <v>2507.5</v>
+        <v>15951.1</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4149,25 +4202,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4176,33 +4229,33 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T41" s="2">
         <v>0.0</v>
       </c>
       <c r="U41" s="2">
-        <v>8003.0</v>
+        <v>22253.0</v>
       </c>
       <c r="V41" s="2">
-        <v>400.0</v>
+        <v>45813.39</v>
       </c>
       <c r="W41" s="2">
-        <v>8403.0</v>
+        <v>68066.39</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4210,25 +4263,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4236,36 +4289,36 @@
         <v>30</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T42" s="2">
         <v>0.0</v>
       </c>
       <c r="U42" s="2">
-        <v>3230.0</v>
+        <v>2635.0</v>
       </c>
       <c r="V42" s="2">
-        <v>74.8</v>
+        <v>2201.5</v>
       </c>
       <c r="W42" s="2">
-        <v>3304.8</v>
+        <v>4836.5</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4273,25 +4326,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -4300,33 +4353,33 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T43" s="2">
         <v>0.0</v>
       </c>
       <c r="U43" s="2">
-        <v>21250.0</v>
+        <v>16660.0</v>
       </c>
       <c r="V43" s="2">
-        <v>13520.95</v>
+        <v>18439.05</v>
       </c>
       <c r="W43" s="2">
-        <v>34770.95</v>
+        <v>35099.05</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4334,25 +4387,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -4360,36 +4413,36 @@
         <v>30</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T44" s="2">
         <v>0.0</v>
       </c>
       <c r="U44" s="2">
-        <v>5525.0</v>
+        <v>55695.0</v>
       </c>
       <c r="V44" s="2">
-        <v>9091.6</v>
+        <v>77057.69</v>
       </c>
       <c r="W44" s="2">
-        <v>14616.6</v>
+        <v>132752.69</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4397,60 +4450,62 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M45" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T45" s="2">
         <v>0.0</v>
       </c>
       <c r="U45" s="2">
-        <v>25245.0</v>
+        <v>204.0</v>
       </c>
       <c r="V45" s="2">
-        <v>6199.05</v>
+        <v>2533.0</v>
       </c>
       <c r="W45" s="2">
-        <v>31444.05</v>
+        <v>2737.0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4458,25 +4513,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
+      </c>
+      <c r="G46" s="2">
+        <v>427066003576</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -4485,33 +4540,33 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T46" s="2">
         <v>0.0</v>
       </c>
       <c r="U46" s="2">
-        <v>16150.0</v>
+        <v>32838.0</v>
       </c>
       <c r="V46" s="2">
-        <v>8811.1</v>
+        <v>11027.05</v>
       </c>
       <c r="W46" s="2">
-        <v>24961.1</v>
+        <v>43865.05</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4519,62 +4574,60 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T47" s="2">
         <v>0.0</v>
       </c>
       <c r="U47" s="2">
-        <v>9860.0</v>
+        <v>510.0</v>
       </c>
       <c r="V47" s="2">
-        <v>1198.0</v>
+        <v>1997.5</v>
       </c>
       <c r="W47" s="2">
-        <v>11058.0</v>
+        <v>2507.5</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4582,62 +4635,60 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T48" s="2">
         <v>0.0</v>
       </c>
       <c r="U48" s="2">
-        <v>2635.0</v>
+        <v>8003.0</v>
       </c>
       <c r="V48" s="2">
-        <v>2201.5</v>
+        <v>400.0</v>
       </c>
       <c r="W48" s="2">
-        <v>4836.5</v>
+        <v>8403.0</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4645,25 +4696,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -4671,36 +4722,36 @@
         <v>30</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T49" s="2">
         <v>0.0</v>
       </c>
       <c r="U49" s="2">
-        <v>5220.0</v>
+        <v>3230.0</v>
       </c>
       <c r="V49" s="2">
-        <v>17748.0</v>
+        <v>74.8</v>
       </c>
       <c r="W49" s="2">
-        <v>22968.0</v>
+        <v>3304.8</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4708,25 +4759,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -4734,36 +4785,36 @@
         <v>30</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T50" s="2">
         <v>0.0</v>
       </c>
       <c r="U50" s="2">
-        <v>18190.0</v>
+        <v>15385.0</v>
       </c>
       <c r="V50" s="2">
-        <v>694.62</v>
+        <v>17657.2</v>
       </c>
       <c r="W50" s="2">
-        <v>18884.62</v>
+        <v>33042.2</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4771,62 +4822,60 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T51" s="2">
         <v>0.0</v>
       </c>
       <c r="U51" s="2">
-        <v>14246.0</v>
+        <v>21250.0</v>
       </c>
       <c r="V51" s="2">
-        <v>17655.35</v>
+        <v>13520.95</v>
       </c>
       <c r="W51" s="2">
-        <v>31901.35</v>
+        <v>34770.95</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4834,62 +4883,60 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T52" s="2">
         <v>0.0</v>
       </c>
       <c r="U52" s="2">
-        <v>12716.0</v>
+        <v>25245.0</v>
       </c>
       <c r="V52" s="2">
-        <v>242.25</v>
+        <v>6199.05</v>
       </c>
       <c r="W52" s="2">
-        <v>12958.25</v>
+        <v>31444.05</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4897,60 +4944,62 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G53" s="2">
-        <v>857067000014</v>
+        <v>231</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M53" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T53" s="2">
         <v>0.0</v>
       </c>
       <c r="U53" s="2">
-        <v>22287.0</v>
+        <v>9860.0</v>
       </c>
       <c r="V53" s="2">
-        <v>19348.55</v>
+        <v>1198.0</v>
       </c>
       <c r="W53" s="2">
-        <v>41635.55</v>
+        <v>11058.0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4958,60 +5007,62 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M54" s="2" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T54" s="2">
         <v>0.0</v>
       </c>
       <c r="U54" s="2">
-        <v>16660.0</v>
+        <v>5525.0</v>
       </c>
       <c r="V54" s="2">
-        <v>18439.05</v>
+        <v>9091.6</v>
       </c>
       <c r="W54" s="2">
-        <v>35099.05</v>
+        <v>14616.6</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5019,62 +5070,58 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S55" s="2"/>
       <c r="T55" s="2">
         <v>0.0</v>
       </c>
       <c r="U55" s="2">
-        <v>55695.0</v>
+        <v>0.0</v>
       </c>
       <c r="V55" s="2">
-        <v>77057.69</v>
+        <v>0.0</v>
       </c>
       <c r="W55" s="2">
-        <v>132752.69</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5082,25 +5129,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -5108,36 +5155,36 @@
         <v>30</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T56" s="2">
         <v>0.0</v>
       </c>
       <c r="U56" s="2">
-        <v>204.0</v>
+        <v>5220.0</v>
       </c>
       <c r="V56" s="2">
-        <v>2533.0</v>
+        <v>17748.0</v>
       </c>
       <c r="W56" s="2">
-        <v>2737.0</v>
+        <v>22968.0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5145,62 +5192,62 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>293</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L57" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M57" s="2" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T57" s="2">
         <v>0.0</v>
       </c>
       <c r="U57" s="2">
-        <v>60044.0</v>
+        <v>18190.0</v>
       </c>
       <c r="V57" s="2">
-        <v>0.0</v>
+        <v>694.62</v>
       </c>
       <c r="W57" s="2">
-        <v>60044.0</v>
+        <v>18884.62</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5208,62 +5255,62 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>300</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M58" s="2" t="s">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T58" s="2">
         <v>0.0</v>
       </c>
       <c r="U58" s="2">
-        <v>6000.0</v>
+        <v>14246.0</v>
       </c>
       <c r="V58" s="2">
-        <v>16692.0</v>
+        <v>17655.35</v>
       </c>
       <c r="W58" s="2">
-        <v>22692.0</v>
+        <v>31901.35</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5271,64 +5318,62 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>306</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T59" s="2">
         <v>0.0</v>
       </c>
       <c r="U59" s="2">
-        <v>19805.0</v>
+        <v>12716.0</v>
       </c>
       <c r="V59" s="2">
-        <v>11693.45</v>
+        <v>242.25</v>
       </c>
       <c r="W59" s="2">
-        <v>31498.45</v>
+        <v>12958.25</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5336,64 +5381,60 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>311</v>
+        <v>231</v>
+      </c>
+      <c r="G60" s="2">
+        <v>857067000014</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T60" s="2">
         <v>0.0</v>
       </c>
       <c r="U60" s="2">
-        <v>21663.28</v>
+        <v>22287.0</v>
       </c>
       <c r="V60" s="2">
-        <v>0.0</v>
+        <v>19348.55</v>
       </c>
       <c r="W60" s="2">
-        <v>21663.28</v>
+        <v>41635.55</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5401,64 +5442,60 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T61" s="2">
         <v>0.0</v>
       </c>
       <c r="U61" s="2">
-        <v>42245.0</v>
+        <v>16150.0</v>
       </c>
       <c r="V61" s="2">
-        <v>6525.45</v>
+        <v>8811.1</v>
       </c>
       <c r="W61" s="2">
-        <v>48770.45</v>
+        <v>24961.1</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5466,62 +5503,62 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I62" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T62" s="2">
         <v>0.0</v>
       </c>
       <c r="U62" s="2">
-        <v>0.0</v>
+        <v>60044.0</v>
       </c>
       <c r="V62" s="2">
         <v>0.0</v>
       </c>
       <c r="W62" s="2">
-        <v>0.0</v>
+        <v>60044.0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5529,62 +5566,64 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="2"/>
+      <c r="L63" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M63" s="2" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T63" s="2">
         <v>0.0</v>
       </c>
       <c r="U63" s="2">
-        <v>24225.0</v>
+        <v>19805.0</v>
       </c>
       <c r="V63" s="2">
-        <v>31280.0</v>
+        <v>11693.45</v>
       </c>
       <c r="W63" s="2">
-        <v>55505.0</v>
+        <v>31498.45</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5592,64 +5631,64 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T64" s="2">
         <v>0.0</v>
       </c>
       <c r="U64" s="2">
-        <v>68892.5</v>
+        <v>42245.0</v>
       </c>
       <c r="V64" s="2">
-        <v>0.0</v>
+        <v>6525.45</v>
       </c>
       <c r="W64" s="2">
-        <v>68892.5</v>
+        <v>48770.45</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5657,28 +5696,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
@@ -5686,33 +5725,33 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T65" s="2">
         <v>0.0</v>
       </c>
       <c r="U65" s="2">
-        <v>31484.0</v>
+        <v>6000.0</v>
       </c>
       <c r="V65" s="2">
-        <v>1400.04</v>
+        <v>16692.0</v>
       </c>
       <c r="W65" s="2">
-        <v>32884.04</v>
+        <v>22692.0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5720,60 +5759,64 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1670203139</v>
+        <v>347</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G66" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="H66" s="2" t="s">
-        <v>343</v>
+        <v>29</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M66" s="2" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T66" s="2">
         <v>0.0</v>
       </c>
       <c r="U66" s="2">
-        <v>22879.0</v>
+        <v>21663.28</v>
       </c>
       <c r="V66" s="2">
-        <v>17066.3</v>
+        <v>0.0</v>
       </c>
       <c r="W66" s="2">
-        <v>39945.3</v>
+        <v>21663.28</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5781,62 +5824,62 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M67" s="2" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T67" s="2">
         <v>0.0</v>
       </c>
       <c r="U67" s="2">
-        <v>4247.0</v>
+        <v>0.0</v>
       </c>
       <c r="V67" s="2">
         <v>0.0</v>
       </c>
       <c r="W67" s="2">
-        <v>4247.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5844,62 +5887,52 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3232</v>
+      </c>
+      <c r="D68" s="2">
+        <v>23232323</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>355</v>
+        <v>326</v>
+      </c>
+      <c r="G68" s="2">
+        <v>32232</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="I68" s="2">
+        <v>2323</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S68" s="2"/>
       <c r="T68" s="2">
         <v>0.0</v>
       </c>
       <c r="U68" s="2">
-        <v>765.0</v>
+        <v>0.0</v>
       </c>
       <c r="V68" s="2">
-        <v>7274.3</v>
+        <v>0.0</v>
       </c>
       <c r="W68" s="2">
-        <v>8039.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5907,64 +5940,64 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>361</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L69" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M69" s="2" t="s">
         <v>362</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>363</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="R69" s="2"/>
       <c r="S69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T69" s="2">
         <v>0.0</v>
       </c>
       <c r="U69" s="2">
-        <v>26690.0</v>
+        <v>68892.5</v>
       </c>
       <c r="V69" s="2">
-        <v>11176.74</v>
+        <v>0.0</v>
       </c>
       <c r="W69" s="2">
-        <v>37866.74</v>
+        <v>68892.5</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5972,28 +6005,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
@@ -6001,35 +6034,33 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>370</v>
+        <v>34</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2" t="s">
-        <v>371</v>
-      </c>
+      <c r="R70" s="2"/>
       <c r="S70" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T70" s="2">
         <v>0.0</v>
       </c>
       <c r="U70" s="2">
-        <v>8415.0</v>
+        <v>24225.0</v>
       </c>
       <c r="V70" s="2">
-        <v>9974.75</v>
+        <v>31280.0</v>
       </c>
       <c r="W70" s="2">
-        <v>18389.75</v>
+        <v>55505.0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6037,60 +6068,62 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I71" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
-        <v>377</v>
+        <v>30</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2" t="s">
-        <v>378</v>
+        <v>220</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>378</v>
+        <v>226</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T71" s="2">
         <v>0.0</v>
       </c>
       <c r="U71" s="2">
-        <v>934.58</v>
+        <v>31484.0</v>
       </c>
       <c r="V71" s="2">
-        <v>0.0</v>
+        <v>1400.04</v>
       </c>
       <c r="W71" s="2">
-        <v>0.0</v>
+        <v>32884.04</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6098,66 +6131,62 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>386</v>
+        <v>48</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>388</v>
+        <v>34</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2" t="s">
-        <v>384</v>
-      </c>
+      <c r="R72" s="2"/>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T72" s="2">
         <v>0.0</v>
       </c>
       <c r="U72" s="2">
-        <v>4560.0</v>
+        <v>765.0</v>
       </c>
       <c r="V72" s="2">
-        <v>0.0</v>
+        <v>7274.3</v>
       </c>
       <c r="W72" s="2">
-        <v>4560.0</v>
+        <v>8039.3</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6165,58 +6194,60 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1670203139</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>393</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>395</v>
+        <v>139</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>393</v>
+        <v>31</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T73" s="2">
         <v>0.0</v>
       </c>
       <c r="U73" s="2">
-        <v>2970.0</v>
+        <v>22879.0</v>
       </c>
       <c r="V73" s="2">
-        <v>0.0</v>
+        <v>17066.3</v>
       </c>
       <c r="W73" s="2">
-        <v>2970.0</v>
+        <v>39945.3</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6224,58 +6255,62 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>400</v>
+        <v>168</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>398</v>
+        <v>31</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T74" s="2">
         <v>0.0</v>
       </c>
       <c r="U74" s="2">
-        <v>4000.0</v>
+        <v>4247.0</v>
       </c>
       <c r="V74" s="2">
         <v>0.0</v>
       </c>
       <c r="W74" s="2">
-        <v>4000.0</v>
+        <v>4247.0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6283,62 +6318,64 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G75" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="H75" s="2" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K75" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>405</v>
+        <v>163</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>402</v>
+        <v>31</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T75" s="2">
         <v>0.0</v>
       </c>
       <c r="U75" s="2">
-        <v>4511.75</v>
+        <v>26690.0</v>
       </c>
       <c r="V75" s="2">
-        <v>0.0</v>
+        <v>11176.74</v>
       </c>
       <c r="W75" s="2">
-        <v>4511.75</v>
+        <v>37866.74</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6346,88 +6383,462 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="H76" s="2" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K76" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>410</v>
+        <v>139</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>411</v>
+        <v>26</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>408</v>
+        <v>31</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U76" s="2">
+        <v>8415.0</v>
+      </c>
+      <c r="V76" s="2">
+        <v>9974.75</v>
+      </c>
+      <c r="W76" s="2">
+        <v>18389.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="S76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U76" s="2">
+      <c r="D77" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U77" s="2">
+        <v>4560.0</v>
+      </c>
+      <c r="V77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W77" s="2">
+        <v>4560.0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U78" s="2">
+        <v>934.58</v>
+      </c>
+      <c r="V78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U79" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="V79" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W79" s="2">
+        <v>4000.0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>2970.0</v>
+      </c>
+      <c r="V80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W80" s="2">
+        <v>2970.0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U81" s="2">
+        <v>4511.75</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W81" s="2">
+        <v>4511.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U82" s="2">
         <v>2500.0</v>
       </c>
-      <c r="V76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="W76" s="2">
+      <c r="V82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W82" s="2">
         <v>2500.0</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
+    <row r="83" spans="1:23">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
